--- a/import_template/guidelines/Import Leave Entitlement.xlsx
+++ b/import_template/guidelines/Import Leave Entitlement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Worknest\import_template\guidelines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AC3D23-9B49-4C61-8922-891E9E977D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31734F4-C22C-4550-9B9F-08E89C55CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{5EB2ECFB-FF2E-4E97-A1F9-9DADB55E9B45}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Column</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>LEAVETP-1</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Database ID of the leave entitlement for updating.</t>
+  </si>
+  <si>
+    <t>LEAVE_ENTITLEMENT_ID</t>
+  </si>
+  <si>
+    <t>LVENT-3</t>
   </si>
 </sst>
 </file>
@@ -495,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D86087-82FB-46F5-B0C7-F4F9CF2E2675}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,75 +541,75 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -609,6 +621,23 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -620,56 +649,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052B8E4-2C96-4091-903E-43F5A3C15A8A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7">
+      <c r="D2" s="7">
         <v>12</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>44562</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>